--- a/pokemon_info.xlsx
+++ b/pokemon_info.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="373" uniqueCount="173">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="377" uniqueCount="177">
   <si>
     <t>Bulbasaur</t>
   </si>
@@ -546,6 +546,18 @@
   </si>
   <si>
     <t>Dragon</t>
+  </si>
+  <si>
+    <t>Weak1</t>
+  </si>
+  <si>
+    <t>Weak2</t>
+  </si>
+  <si>
+    <t>Weak3</t>
+  </si>
+  <si>
+    <t>Weak4</t>
   </si>
 </sst>
 </file>
@@ -863,10 +875,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,7 +886,7 @@
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>150</v>
       </c>
@@ -887,8 +899,20 @@
       <c r="D1" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" t="s">
+        <v>175</v>
+      </c>
+      <c r="H1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -902,7 +926,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -916,7 +940,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -930,7 +954,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -941,7 +965,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -952,7 +976,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -966,7 +990,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -977,7 +1001,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -988,7 +1012,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -999,7 +1023,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1010,7 +1034,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1021,7 +1045,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1035,7 +1059,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1049,7 +1073,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1063,7 +1087,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
